--- a/src/main/resources/static/template/operation_stock.xlsx
+++ b/src/main/resources/static/template/operation_stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>仓库描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,14 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出入库清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,6 +49,38 @@
   </si>
   <si>
     <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,13 +482,13 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="7" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -475,16 +499,22 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -499,18 +529,36 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/template/operation_stock.xlsx
+++ b/src/main/resources/static/template/operation_stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>仓库描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>经办人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量/KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公斤数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -482,11 +490,11 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="7" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -505,8 +513,10 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -544,21 +554,27 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
